--- a/app/src/test/resources/DatasetsforQTrip.xlsx
+++ b/app/src/test/resources/DatasetsforQTrip.xlsx
@@ -348,10 +348,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="49" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,7 +399,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1076,7 +1076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
